--- a/Radiación.xlsx
+++ b/Radiación.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="22116" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="22116" windowHeight="9552" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Radiación camisa 10s</t>
   </si>
@@ -103,6 +103,69 @@
   </si>
   <si>
     <t>Polar 2</t>
+  </si>
+  <si>
+    <t>Poly-5mm-1s</t>
+  </si>
+  <si>
+    <t>Poly-10mm-1s</t>
+  </si>
+  <si>
+    <t>Plastic-0.030in-1s</t>
+  </si>
+  <si>
+    <t>Plastic-0.040in-1s</t>
+  </si>
+  <si>
+    <t>Al-0.020in-1s</t>
+  </si>
+  <si>
+    <t>Al-F-0.7mm-1s</t>
+  </si>
+  <si>
+    <t>Al-F-1mm-1s</t>
+  </si>
+  <si>
+    <t>Al-0.025in-1s</t>
+  </si>
+  <si>
+    <t>Al-0.032in-1s</t>
+  </si>
+  <si>
+    <t>Al-0.040in-1s</t>
+  </si>
+  <si>
+    <t>Al-0.050in-1s</t>
+  </si>
+  <si>
+    <t>ρ(mg/cm^2)</t>
+  </si>
+  <si>
+    <t>Al-0.063in-1s</t>
+  </si>
+  <si>
+    <t>Al-0.080in-1s</t>
+  </si>
+  <si>
+    <t>Al-0.100in-1s</t>
+  </si>
+  <si>
+    <t>Al-0.125in-1s</t>
+  </si>
+  <si>
+    <t>Lead-0.032in-1s</t>
+  </si>
+  <si>
+    <t>Lead-0.064in-10s</t>
+  </si>
+  <si>
+    <t>Lead-0.125in-10s</t>
+  </si>
+  <si>
+    <t>Lead-0.250in-10s</t>
+  </si>
+  <si>
+    <t>Papel</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2433,12 +2496,436 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1">
+        <v>4.5</v>
+      </c>
+      <c r="C1">
+        <v>6.5</v>
+      </c>
+      <c r="D1">
+        <v>14.1</v>
+      </c>
+      <c r="E1">
+        <v>28.1</v>
+      </c>
+      <c r="F1">
+        <v>59.1</v>
+      </c>
+      <c r="G1">
+        <v>102</v>
+      </c>
+      <c r="H1">
+        <v>129</v>
+      </c>
+      <c r="I1">
+        <v>161</v>
+      </c>
+      <c r="J1">
+        <v>206</v>
+      </c>
+      <c r="K1">
+        <v>258</v>
+      </c>
+      <c r="L1">
+        <v>328</v>
+      </c>
+      <c r="M1">
+        <v>419</v>
+      </c>
+      <c r="N1">
+        <v>516</v>
+      </c>
+      <c r="O1">
+        <v>645</v>
+      </c>
+      <c r="P1">
+        <v>849</v>
+      </c>
+      <c r="Q1">
+        <v>1230</v>
+      </c>
+      <c r="R1">
+        <v>1890</v>
+      </c>
+      <c r="S1">
+        <v>3632</v>
+      </c>
+      <c r="T1">
+        <v>7435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1248</v>
+      </c>
+      <c r="C3">
+        <v>1179</v>
+      </c>
+      <c r="D3">
+        <v>1067</v>
+      </c>
+      <c r="E3">
+        <v>811</v>
+      </c>
+      <c r="F3">
+        <v>431</v>
+      </c>
+      <c r="G3">
+        <v>334</v>
+      </c>
+      <c r="H3">
+        <v>214</v>
+      </c>
+      <c r="I3">
+        <v>217</v>
+      </c>
+      <c r="J3">
+        <v>104</v>
+      </c>
+      <c r="K3">
+        <v>63</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>42</v>
+      </c>
+      <c r="N3">
+        <v>27</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>98</v>
+      </c>
+      <c r="S3">
+        <v>94</v>
+      </c>
+      <c r="T3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1291</v>
+      </c>
+      <c r="C4">
+        <v>1210</v>
+      </c>
+      <c r="D4">
+        <v>1151</v>
+      </c>
+      <c r="E4">
+        <v>855</v>
+      </c>
+      <c r="F4">
+        <v>438</v>
+      </c>
+      <c r="G4">
+        <v>331</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <v>224</v>
+      </c>
+      <c r="J4">
+        <v>124</v>
+      </c>
+      <c r="K4">
+        <v>86</v>
+      </c>
+      <c r="L4">
+        <v>61</v>
+      </c>
+      <c r="M4">
+        <v>44</v>
+      </c>
+      <c r="N4">
+        <v>23</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>102</v>
+      </c>
+      <c r="S4">
+        <v>84</v>
+      </c>
+      <c r="T4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1243</v>
+      </c>
+      <c r="C5">
+        <v>1192</v>
+      </c>
+      <c r="D5">
+        <v>1080</v>
+      </c>
+      <c r="E5">
+        <v>796</v>
+      </c>
+      <c r="F5">
+        <v>441</v>
+      </c>
+      <c r="G5">
+        <v>351</v>
+      </c>
+      <c r="H5">
+        <v>207</v>
+      </c>
+      <c r="I5">
+        <v>199</v>
+      </c>
+      <c r="J5">
+        <v>116</v>
+      </c>
+      <c r="K5">
+        <v>67</v>
+      </c>
+      <c r="L5">
+        <v>53</v>
+      </c>
+      <c r="M5">
+        <v>37</v>
+      </c>
+      <c r="N5">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>97</v>
+      </c>
+      <c r="S5">
+        <v>86</v>
+      </c>
+      <c r="T5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1233</v>
+      </c>
+      <c r="F9">
+        <v>1153</v>
+      </c>
+      <c r="G9">
+        <v>793</v>
+      </c>
+      <c r="H9">
+        <v>648</v>
+      </c>
+      <c r="I9">
+        <v>374</v>
+      </c>
+      <c r="J9">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1245</v>
+      </c>
+      <c r="F10">
+        <v>1128</v>
+      </c>
+      <c r="G10">
+        <v>877</v>
+      </c>
+      <c r="H10">
+        <v>625</v>
+      </c>
+      <c r="I10">
+        <v>367</v>
+      </c>
+      <c r="J10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>1209</v>
+      </c>
+      <c r="F11">
+        <v>1098</v>
+      </c>
+      <c r="G11">
+        <v>818</v>
+      </c>
+      <c r="H11">
+        <v>640</v>
+      </c>
+      <c r="I11">
+        <v>336</v>
+      </c>
+      <c r="J11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>1247</v>
+      </c>
+      <c r="F12">
+        <v>1161</v>
+      </c>
+      <c r="G12">
+        <v>918</v>
+      </c>
+      <c r="H12">
+        <v>604</v>
+      </c>
+      <c r="I12">
+        <v>375</v>
+      </c>
+      <c r="J12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>1219</v>
+      </c>
+      <c r="F13">
+        <v>1078</v>
+      </c>
+      <c r="G13">
+        <v>859</v>
+      </c>
+      <c r="H13">
+        <v>604</v>
+      </c>
+      <c r="I13">
+        <v>370</v>
+      </c>
+      <c r="J13">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>